--- a/Original Project Files/Results/Original_Results.xlsx
+++ b/Original Project Files/Results/Original_Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uqajon14/Documents/Projects/White-Shark-Breeders/Original Project Files/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05373ED9-83F1-B346-AAB1-0FE1E1105B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDF2602-4394-7C49-8C44-40C39B2C2D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2820" yWindow="2400" windowWidth="28040" windowHeight="17440" xr2:uid="{41B76BA6-EAB7-0249-A1FE-5A41543FEAA9}"/>
   </bookViews>
@@ -53,9 +53,6 @@
     <t>Nb_SA_lower</t>
   </si>
   <si>
-    <t>Nb_Na_ratio</t>
-  </si>
-  <si>
     <t>Nb_COM_est</t>
   </si>
   <si>
@@ -69,6 +66,9 @@
   </si>
   <si>
     <t>S</t>
+  </si>
+  <si>
+    <t>Na_Nb_ratio</t>
   </si>
 </sst>
 </file>
@@ -472,7 +472,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -496,10 +496,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -508,7 +508,7 @@
         <v>1</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>4</v>
@@ -517,13 +517,13 @@
         <v>3</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
